--- a/omswechat0619.xlsx
+++ b/omswechat0619.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="微信测试" sheetId="4" state="hidden" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="活动" sheetId="12" r:id="rId6"/>
     <sheet name="我的" sheetId="13" r:id="rId7"/>
     <sheet name="登录注册退出" sheetId="10" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="14" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">登录注册退出!$L$1:$L$78</definedName>
@@ -171,7 +172,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4240" uniqueCount="1599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4243" uniqueCount="1602">
   <si>
     <t>步骤</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6696,6 +6697,18 @@
   </si>
   <si>
     <t>Qinhuan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">test </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">helo  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>world</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8158,6 +8171,13 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -8165,42 +8185,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8219,6 +8203,42 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="8" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -8248,19 +8268,168 @@
     <xf numFmtId="0" fontId="18" fillId="8" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="123">
+  <dxfs count="111">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33CC33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -8288,36 +8457,6 @@
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -8458,95 +8597,9 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF33CC33"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -8558,129 +8611,29 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
-        <patternFill patternType="solid">
+        <patternFill>
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -8930,69 +8883,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <condense val="0"/>
         <extend val="0"/>
@@ -9007,122 +8897,134 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF7030A0"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CC33"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -16985,39 +16887,39 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A356:A359 A361:A362 A2:A3 A10:A49 A85:A354">
-    <cfRule type="containsText" dxfId="122" priority="21" operator="containsText" text="交互测试">
+    <cfRule type="containsText" dxfId="110" priority="21" operator="containsText" text="交互测试">
       <formula>NOT(ISERROR(SEARCH("交互测试",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="121" priority="22" operator="containsText" text="入口测试">
+    <cfRule type="containsText" dxfId="109" priority="22" operator="containsText" text="入口测试">
       <formula>NOT(ISERROR(SEARCH("入口测试",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="120" priority="23" operator="containsText" text="功能测试">
+    <cfRule type="containsText" dxfId="108" priority="23" operator="containsText" text="功能测试">
       <formula>NOT(ISERROR(SEARCH("功能测试",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A49 A85:A1048576">
-    <cfRule type="cellIs" dxfId="119" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="4" operator="equal">
       <formula>"安全测试"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="118" priority="20" operator="containsText" text="UI测试">
+    <cfRule type="containsText" dxfId="106" priority="20" operator="containsText" text="UI测试">
       <formula>NOT(ISERROR(SEARCH("UI测试",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I98:I1048576 I1:I49 I85:I96">
-    <cfRule type="containsText" dxfId="117" priority="2" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="105" priority="2" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH("fail",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="116" priority="6" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="104" priority="6" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH("fail",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I343 I329:I330">
-    <cfRule type="containsText" dxfId="115" priority="5" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="103" priority="5" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH("fail",I329)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I49 I85:I1048576">
-    <cfRule type="containsText" dxfId="114" priority="1" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="102" priority="1" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH("pass",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17103,7 +17005,7 @@
       <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:9" ht="72">
-      <c r="A3" s="210" t="s">
+      <c r="A3" s="220" t="s">
         <v>265</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -17128,7 +17030,7 @@
       <c r="I3" s="9"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="212"/>
+      <c r="A4" s="225"/>
       <c r="B4" s="7"/>
       <c r="C4" s="6"/>
       <c r="D4" s="7"/>
@@ -17145,7 +17047,7 @@
       <c r="I4" s="9"/>
     </row>
     <row r="5" spans="1:9" ht="36">
-      <c r="A5" s="210" t="s">
+      <c r="A5" s="220" t="s">
         <v>266</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -17170,7 +17072,7 @@
       <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="212"/>
+      <c r="A6" s="225"/>
       <c r="B6" s="12"/>
       <c r="C6" s="11"/>
       <c r="D6" s="12"/>
@@ -17187,7 +17089,7 @@
       <c r="I6" s="13"/>
     </row>
     <row r="7" spans="1:9" ht="48">
-      <c r="A7" s="210" t="s">
+      <c r="A7" s="220" t="s">
         <v>267</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -17208,11 +17110,11 @@
       <c r="G7" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="H7" s="204"/>
-      <c r="I7" s="207"/>
+      <c r="H7" s="209"/>
+      <c r="I7" s="227"/>
     </row>
     <row r="8" spans="1:9" ht="24">
-      <c r="A8" s="211"/>
+      <c r="A8" s="221"/>
       <c r="B8" s="7"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7"/>
@@ -17225,11 +17127,11 @@
       <c r="G8" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="H8" s="205"/>
-      <c r="I8" s="208"/>
+      <c r="H8" s="210"/>
+      <c r="I8" s="228"/>
     </row>
     <row r="9" spans="1:9" ht="24">
-      <c r="A9" s="212"/>
+      <c r="A9" s="225"/>
       <c r="B9" s="7"/>
       <c r="C9" s="6"/>
       <c r="D9" s="7"/>
@@ -17242,11 +17144,11 @@
       <c r="G9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="206"/>
-      <c r="I9" s="209"/>
+      <c r="H9" s="211"/>
+      <c r="I9" s="229"/>
     </row>
     <row r="10" spans="1:9" ht="48">
-      <c r="A10" s="210" t="s">
+      <c r="A10" s="220" t="s">
         <v>268</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -17271,7 +17173,7 @@
       <c r="I10" s="39"/>
     </row>
     <row r="11" spans="1:9" ht="24">
-      <c r="A11" s="211"/>
+      <c r="A11" s="221"/>
       <c r="B11" s="7"/>
       <c r="C11" s="6"/>
       <c r="D11" s="7"/>
@@ -17288,7 +17190,7 @@
       <c r="I11" s="39"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="211"/>
+      <c r="A12" s="221"/>
       <c r="B12" s="7"/>
       <c r="C12" s="6"/>
       <c r="D12" s="7"/>
@@ -17305,7 +17207,7 @@
       <c r="I12" s="39"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="212"/>
+      <c r="A13" s="225"/>
       <c r="B13" s="7"/>
       <c r="C13" s="6"/>
       <c r="D13" s="7"/>
@@ -17322,7 +17224,7 @@
       <c r="I13" s="39"/>
     </row>
     <row r="14" spans="1:9" ht="60">
-      <c r="A14" s="210" t="s">
+      <c r="A14" s="220" t="s">
         <v>269</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -17347,7 +17249,7 @@
       <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:9" ht="24">
-      <c r="A15" s="211"/>
+      <c r="A15" s="221"/>
       <c r="B15" s="7"/>
       <c r="C15" s="6"/>
       <c r="D15" s="15"/>
@@ -17364,7 +17266,7 @@
       <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="211"/>
+      <c r="A16" s="221"/>
       <c r="B16" s="7"/>
       <c r="C16" s="6"/>
       <c r="D16" s="15"/>
@@ -17381,7 +17283,7 @@
       <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="212"/>
+      <c r="A17" s="225"/>
       <c r="B17" s="7"/>
       <c r="C17" s="6"/>
       <c r="D17" s="15"/>
@@ -17398,7 +17300,7 @@
       <c r="I17" s="9"/>
     </row>
     <row r="18" spans="1:9" ht="24">
-      <c r="A18" s="210" t="s">
+      <c r="A18" s="220" t="s">
         <v>270</v>
       </c>
       <c r="B18" s="7" t="s">
@@ -17423,7 +17325,7 @@
       <c r="I18" s="9"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="212"/>
+      <c r="A19" s="225"/>
       <c r="B19" s="7"/>
       <c r="C19" s="6"/>
       <c r="D19" s="7"/>
@@ -17440,7 +17342,7 @@
       <c r="I19" s="9"/>
     </row>
     <row r="20" spans="1:9" s="20" customFormat="1" ht="24">
-      <c r="A20" s="213" t="s">
+      <c r="A20" s="218" t="s">
         <v>271</v>
       </c>
       <c r="B20" s="17" t="s">
@@ -17465,7 +17367,7 @@
       <c r="I20" s="19"/>
     </row>
     <row r="21" spans="1:9" s="20" customFormat="1">
-      <c r="A21" s="214"/>
+      <c r="A21" s="226"/>
       <c r="B21" s="17"/>
       <c r="C21" s="16"/>
       <c r="D21" s="17"/>
@@ -17482,7 +17384,7 @@
       <c r="I21" s="19"/>
     </row>
     <row r="22" spans="1:9" s="20" customFormat="1">
-      <c r="A22" s="214"/>
+      <c r="A22" s="226"/>
       <c r="B22" s="17"/>
       <c r="C22" s="16"/>
       <c r="D22" s="17"/>
@@ -17499,7 +17401,7 @@
       <c r="I22" s="19"/>
     </row>
     <row r="23" spans="1:9" s="20" customFormat="1">
-      <c r="A23" s="214"/>
+      <c r="A23" s="226"/>
       <c r="B23" s="17"/>
       <c r="C23" s="16"/>
       <c r="D23" s="17" t="s">
@@ -17518,7 +17420,7 @@
       <c r="I23" s="19"/>
     </row>
     <row r="24" spans="1:9" s="20" customFormat="1" ht="24">
-      <c r="A24" s="214"/>
+      <c r="A24" s="226"/>
       <c r="B24" s="17"/>
       <c r="C24" s="16"/>
       <c r="D24" s="17" t="s">
@@ -17537,7 +17439,7 @@
       <c r="I24" s="19"/>
     </row>
     <row r="25" spans="1:9" s="20" customFormat="1">
-      <c r="A25" s="214"/>
+      <c r="A25" s="226"/>
       <c r="B25" s="17"/>
       <c r="C25" s="16"/>
       <c r="D25" s="17"/>
@@ -17554,7 +17456,7 @@
       <c r="I25" s="19"/>
     </row>
     <row r="26" spans="1:9" s="20" customFormat="1" ht="24">
-      <c r="A26" s="214"/>
+      <c r="A26" s="226"/>
       <c r="B26" s="17"/>
       <c r="C26" s="16"/>
       <c r="D26" s="17" t="s">
@@ -17573,7 +17475,7 @@
       <c r="I26" s="19"/>
     </row>
     <row r="27" spans="1:9" s="20" customFormat="1" ht="24">
-      <c r="A27" s="215"/>
+      <c r="A27" s="219"/>
       <c r="B27" s="17"/>
       <c r="C27" s="16"/>
       <c r="D27" s="17" t="s">
@@ -17592,7 +17494,7 @@
       <c r="I27" s="19"/>
     </row>
     <row r="28" spans="1:9" s="20" customFormat="1" ht="24">
-      <c r="A28" s="213" t="s">
+      <c r="A28" s="218" t="s">
         <v>272</v>
       </c>
       <c r="B28" s="17" t="s">
@@ -17617,7 +17519,7 @@
       <c r="I28" s="19"/>
     </row>
     <row r="29" spans="1:9" s="20" customFormat="1" ht="24">
-      <c r="A29" s="214"/>
+      <c r="A29" s="226"/>
       <c r="B29" s="17"/>
       <c r="C29" s="16"/>
       <c r="D29" s="17" t="s">
@@ -17636,7 +17538,7 @@
       <c r="I29" s="19"/>
     </row>
     <row r="30" spans="1:9" s="20" customFormat="1">
-      <c r="A30" s="214"/>
+      <c r="A30" s="226"/>
       <c r="B30" s="17"/>
       <c r="C30" s="16"/>
       <c r="D30" s="17" t="s">
@@ -17655,7 +17557,7 @@
       <c r="I30" s="19"/>
     </row>
     <row r="31" spans="1:9" s="20" customFormat="1">
-      <c r="A31" s="215"/>
+      <c r="A31" s="219"/>
       <c r="B31" s="17"/>
       <c r="C31" s="16"/>
       <c r="D31" s="17" t="s">
@@ -17674,7 +17576,7 @@
       <c r="I31" s="19"/>
     </row>
     <row r="32" spans="1:9" s="20" customFormat="1" ht="24">
-      <c r="A32" s="213" t="s">
+      <c r="A32" s="218" t="s">
         <v>273</v>
       </c>
       <c r="B32" s="17" t="s">
@@ -17699,7 +17601,7 @@
       <c r="I32" s="19"/>
     </row>
     <row r="33" spans="1:9" s="20" customFormat="1" ht="24">
-      <c r="A33" s="215"/>
+      <c r="A33" s="219"/>
       <c r="B33" s="17"/>
       <c r="C33" s="16"/>
       <c r="D33" s="17" t="s">
@@ -17893,7 +17795,7 @@
       <c r="I40" s="9"/>
     </row>
     <row r="41" spans="1:9" ht="24">
-      <c r="A41" s="210" t="s">
+      <c r="A41" s="220" t="s">
         <v>281</v>
       </c>
       <c r="B41" s="7" t="s">
@@ -17918,7 +17820,7 @@
       <c r="I41" s="9"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="211"/>
+      <c r="A42" s="221"/>
       <c r="B42" s="7"/>
       <c r="C42" s="6"/>
       <c r="D42" s="7"/>
@@ -17935,7 +17837,7 @@
       <c r="I42" s="9"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="211"/>
+      <c r="A43" s="221"/>
       <c r="B43" s="7"/>
       <c r="C43" s="6"/>
       <c r="D43" s="7"/>
@@ -17952,7 +17854,7 @@
       <c r="I43" s="9"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="211"/>
+      <c r="A44" s="221"/>
       <c r="B44" s="7"/>
       <c r="C44" s="6"/>
       <c r="D44" s="7"/>
@@ -17969,7 +17871,7 @@
       <c r="I44" s="9"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="211"/>
+      <c r="A45" s="221"/>
       <c r="B45" s="7"/>
       <c r="C45" s="6"/>
       <c r="D45" s="7"/>
@@ -17986,7 +17888,7 @@
       <c r="I45" s="9"/>
     </row>
     <row r="46" spans="1:9" ht="36">
-      <c r="A46" s="216" t="s">
+      <c r="A46" s="222" t="s">
         <v>282</v>
       </c>
       <c r="B46" s="7" t="s">
@@ -18011,7 +17913,7 @@
       <c r="I46" s="9"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="217"/>
+      <c r="A47" s="223"/>
       <c r="B47" s="7"/>
       <c r="C47" s="6"/>
       <c r="D47" s="7"/>
@@ -18028,7 +17930,7 @@
       <c r="I47" s="9"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="217"/>
+      <c r="A48" s="223"/>
       <c r="B48" s="12"/>
       <c r="C48" s="11"/>
       <c r="D48" s="12"/>
@@ -18045,7 +17947,7 @@
       <c r="I48" s="13"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="217"/>
+      <c r="A49" s="223"/>
       <c r="B49" s="12"/>
       <c r="C49" s="11"/>
       <c r="D49" s="12"/>
@@ -18062,7 +17964,7 @@
       <c r="I49" s="23"/>
     </row>
     <row r="50" spans="1:9" ht="24">
-      <c r="A50" s="218"/>
+      <c r="A50" s="224"/>
       <c r="B50" s="12"/>
       <c r="C50" s="37"/>
       <c r="D50" s="7" t="s">
@@ -18081,7 +17983,7 @@
       <c r="I50" s="23"/>
     </row>
     <row r="51" spans="1:9" ht="36">
-      <c r="A51" s="204" t="s">
+      <c r="A51" s="209" t="s">
         <v>283</v>
       </c>
       <c r="B51" s="7" t="s">
@@ -18106,7 +18008,7 @@
       <c r="I51" s="6"/>
     </row>
     <row r="52" spans="1:9" s="24" customFormat="1" ht="24">
-      <c r="A52" s="205"/>
+      <c r="A52" s="210"/>
       <c r="B52" s="7"/>
       <c r="C52" s="6"/>
       <c r="D52" s="7"/>
@@ -18123,7 +18025,7 @@
       <c r="I52" s="6"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="205"/>
+      <c r="A53" s="210"/>
       <c r="B53" s="26"/>
       <c r="C53" s="25"/>
       <c r="D53" s="26"/>
@@ -18140,7 +18042,7 @@
       <c r="I53" s="25"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="205"/>
+      <c r="A54" s="210"/>
       <c r="B54" s="7"/>
       <c r="C54" s="6"/>
       <c r="D54" s="7"/>
@@ -18157,7 +18059,7 @@
       <c r="I54" s="6"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="205"/>
+      <c r="A55" s="210"/>
       <c r="B55" s="7"/>
       <c r="C55" s="6"/>
       <c r="D55" s="7"/>
@@ -18174,7 +18076,7 @@
       <c r="I55" s="6"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="205"/>
+      <c r="A56" s="210"/>
       <c r="B56" s="7"/>
       <c r="C56" s="6"/>
       <c r="D56" s="7"/>
@@ -18191,7 +18093,7 @@
       <c r="I56" s="6"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="205"/>
+      <c r="A57" s="210"/>
       <c r="B57" s="7"/>
       <c r="C57" s="6"/>
       <c r="D57" s="7"/>
@@ -18208,7 +18110,7 @@
       <c r="I57" s="6"/>
     </row>
     <row r="58" spans="1:9" ht="24">
-      <c r="A58" s="206"/>
+      <c r="A58" s="211"/>
       <c r="B58" s="7"/>
       <c r="C58" s="6"/>
       <c r="D58" s="7" t="s">
@@ -18227,7 +18129,7 @@
       <c r="I58" s="6"/>
     </row>
     <row r="59" spans="1:9" ht="24">
-      <c r="A59" s="204" t="s">
+      <c r="A59" s="209" t="s">
         <v>284</v>
       </c>
       <c r="B59" s="7" t="s">
@@ -18252,7 +18154,7 @@
       <c r="I59" s="6"/>
     </row>
     <row r="60" spans="1:9" ht="24">
-      <c r="A60" s="205"/>
+      <c r="A60" s="210"/>
       <c r="B60" s="7"/>
       <c r="C60" s="6"/>
       <c r="D60" s="7"/>
@@ -18269,7 +18171,7 @@
       <c r="I60" s="6"/>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="205"/>
+      <c r="A61" s="210"/>
       <c r="B61" s="7"/>
       <c r="C61" s="6"/>
       <c r="D61" s="7"/>
@@ -18286,7 +18188,7 @@
       <c r="I61" s="6"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="205"/>
+      <c r="A62" s="210"/>
       <c r="B62" s="7"/>
       <c r="C62" s="6"/>
       <c r="D62" s="7"/>
@@ -18303,7 +18205,7 @@
       <c r="I62" s="6"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="205"/>
+      <c r="A63" s="210"/>
       <c r="B63" s="7"/>
       <c r="C63" s="6"/>
       <c r="D63" s="7"/>
@@ -18320,7 +18222,7 @@
       <c r="I63" s="6"/>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="205"/>
+      <c r="A64" s="210"/>
       <c r="B64" s="7"/>
       <c r="C64" s="6"/>
       <c r="D64" s="7"/>
@@ -18337,7 +18239,7 @@
       <c r="I64" s="6"/>
     </row>
     <row r="65" spans="1:9" ht="24">
-      <c r="A65" s="205"/>
+      <c r="A65" s="210"/>
       <c r="B65" s="7"/>
       <c r="C65" s="6"/>
       <c r="D65" s="7"/>
@@ -18354,7 +18256,7 @@
       <c r="I65" s="6"/>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="205"/>
+      <c r="A66" s="210"/>
       <c r="B66" s="7"/>
       <c r="C66" s="6"/>
       <c r="D66" s="7"/>
@@ -18371,7 +18273,7 @@
       <c r="I66" s="6"/>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="205"/>
+      <c r="A67" s="210"/>
       <c r="B67" s="7"/>
       <c r="C67" s="6"/>
       <c r="D67" s="7"/>
@@ -18388,7 +18290,7 @@
       <c r="I67" s="6"/>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="205"/>
+      <c r="A68" s="210"/>
       <c r="B68" s="7"/>
       <c r="C68" s="6"/>
       <c r="D68" s="7"/>
@@ -18405,7 +18307,7 @@
       <c r="I68" s="6"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="205"/>
+      <c r="A69" s="210"/>
       <c r="B69" s="7"/>
       <c r="C69" s="6"/>
       <c r="D69" s="7"/>
@@ -18422,7 +18324,7 @@
       <c r="I69" s="6"/>
     </row>
     <row r="70" spans="1:9" ht="24">
-      <c r="A70" s="205"/>
+      <c r="A70" s="210"/>
       <c r="B70" s="7"/>
       <c r="C70" s="6"/>
       <c r="D70" s="7" t="s">
@@ -18441,7 +18343,7 @@
       <c r="I70" s="6"/>
     </row>
     <row r="71" spans="1:9" ht="24">
-      <c r="A71" s="206"/>
+      <c r="A71" s="211"/>
       <c r="B71" s="7"/>
       <c r="C71" s="6"/>
       <c r="D71" s="7" t="s">
@@ -18460,7 +18362,7 @@
       <c r="I71" s="6"/>
     </row>
     <row r="72" spans="1:9" ht="24">
-      <c r="A72" s="204" t="s">
+      <c r="A72" s="209" t="s">
         <v>285</v>
       </c>
       <c r="B72" s="7" t="s">
@@ -18485,7 +18387,7 @@
       <c r="I72" s="6"/>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="205"/>
+      <c r="A73" s="210"/>
       <c r="B73" s="7"/>
       <c r="C73" s="6"/>
       <c r="D73" s="7"/>
@@ -18502,7 +18404,7 @@
       <c r="I73" s="6"/>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="205"/>
+      <c r="A74" s="210"/>
       <c r="B74" s="7"/>
       <c r="C74" s="6"/>
       <c r="D74" s="7"/>
@@ -18519,7 +18421,7 @@
       <c r="I74" s="6"/>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="205"/>
+      <c r="A75" s="210"/>
       <c r="B75" s="7"/>
       <c r="C75" s="6"/>
       <c r="D75" s="7"/>
@@ -18536,7 +18438,7 @@
       <c r="I75" s="6"/>
     </row>
     <row r="76" spans="1:9" ht="24">
-      <c r="A76" s="205"/>
+      <c r="A76" s="210"/>
       <c r="B76" s="7"/>
       <c r="C76" s="6"/>
       <c r="D76" s="7" t="s">
@@ -18555,7 +18457,7 @@
       <c r="I76" s="6"/>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="206"/>
+      <c r="A77" s="211"/>
       <c r="B77" s="7"/>
       <c r="C77" s="6"/>
       <c r="D77" s="7" t="s">
@@ -18574,7 +18476,7 @@
       <c r="I77" s="6"/>
     </row>
     <row r="78" spans="1:9" s="31" customFormat="1" ht="24">
-      <c r="A78" s="219" t="s">
+      <c r="A78" s="212" t="s">
         <v>286</v>
       </c>
       <c r="B78" s="29" t="s">
@@ -18599,7 +18501,7 @@
       <c r="I78" s="28"/>
     </row>
     <row r="79" spans="1:9" s="31" customFormat="1">
-      <c r="A79" s="220"/>
+      <c r="A79" s="213"/>
       <c r="B79" s="29"/>
       <c r="C79" s="28"/>
       <c r="D79" s="29"/>
@@ -18616,7 +18518,7 @@
       <c r="I79" s="28"/>
     </row>
     <row r="80" spans="1:9" s="31" customFormat="1">
-      <c r="A80" s="220"/>
+      <c r="A80" s="213"/>
       <c r="B80" s="29"/>
       <c r="C80" s="28"/>
       <c r="D80" s="29" t="s">
@@ -18635,7 +18537,7 @@
       <c r="I80" s="28"/>
     </row>
     <row r="81" spans="1:9" s="31" customFormat="1">
-      <c r="A81" s="220"/>
+      <c r="A81" s="213"/>
       <c r="B81" s="29"/>
       <c r="C81" s="28"/>
       <c r="D81" s="29" t="s">
@@ -18654,7 +18556,7 @@
       <c r="I81" s="28"/>
     </row>
     <row r="82" spans="1:9" s="31" customFormat="1">
-      <c r="A82" s="221"/>
+      <c r="A82" s="214"/>
       <c r="B82" s="29"/>
       <c r="C82" s="28"/>
       <c r="D82" s="29"/>
@@ -18665,7 +18567,7 @@
       <c r="I82" s="28"/>
     </row>
     <row r="83" spans="1:9" s="31" customFormat="1" ht="24">
-      <c r="A83" s="219" t="s">
+      <c r="A83" s="212" t="s">
         <v>287</v>
       </c>
       <c r="B83" s="29" t="s">
@@ -18690,7 +18592,7 @@
       <c r="I83" s="28"/>
     </row>
     <row r="84" spans="1:9" s="31" customFormat="1">
-      <c r="A84" s="220"/>
+      <c r="A84" s="213"/>
       <c r="B84" s="29"/>
       <c r="C84" s="28"/>
       <c r="D84" s="29"/>
@@ -18707,7 +18609,7 @@
       <c r="I84" s="28"/>
     </row>
     <row r="85" spans="1:9" s="31" customFormat="1">
-      <c r="A85" s="220"/>
+      <c r="A85" s="213"/>
       <c r="B85" s="29"/>
       <c r="C85" s="28"/>
       <c r="D85" s="29"/>
@@ -18724,7 +18626,7 @@
       <c r="I85" s="28"/>
     </row>
     <row r="86" spans="1:9" s="31" customFormat="1">
-      <c r="A86" s="220"/>
+      <c r="A86" s="213"/>
       <c r="B86" s="29"/>
       <c r="C86" s="28"/>
       <c r="D86" s="29"/>
@@ -18735,7 +18637,7 @@
       <c r="I86" s="28"/>
     </row>
     <row r="87" spans="1:9" s="31" customFormat="1">
-      <c r="A87" s="221"/>
+      <c r="A87" s="214"/>
       <c r="B87" s="29"/>
       <c r="C87" s="28"/>
       <c r="D87" s="29"/>
@@ -18746,7 +18648,7 @@
       <c r="I87" s="28"/>
     </row>
     <row r="88" spans="1:9" s="31" customFormat="1" ht="24">
-      <c r="A88" s="219" t="s">
+      <c r="A88" s="212" t="s">
         <v>288</v>
       </c>
       <c r="B88" s="29" t="s">
@@ -18771,7 +18673,7 @@
       <c r="I88" s="28"/>
     </row>
     <row r="89" spans="1:9" s="31" customFormat="1">
-      <c r="A89" s="220"/>
+      <c r="A89" s="213"/>
       <c r="B89" s="29"/>
       <c r="C89" s="28"/>
       <c r="D89" s="29"/>
@@ -18788,7 +18690,7 @@
       <c r="I89" s="28"/>
     </row>
     <row r="90" spans="1:9" s="31" customFormat="1">
-      <c r="A90" s="220"/>
+      <c r="A90" s="213"/>
       <c r="B90" s="29"/>
       <c r="C90" s="28"/>
       <c r="D90" s="29"/>
@@ -18805,7 +18707,7 @@
       <c r="I90" s="28"/>
     </row>
     <row r="91" spans="1:9" s="31" customFormat="1">
-      <c r="A91" s="220"/>
+      <c r="A91" s="213"/>
       <c r="B91" s="29"/>
       <c r="C91" s="28"/>
       <c r="D91" s="29"/>
@@ -18822,7 +18724,7 @@
       <c r="I91" s="28"/>
     </row>
     <row r="92" spans="1:9" s="31" customFormat="1">
-      <c r="A92" s="220"/>
+      <c r="A92" s="213"/>
       <c r="B92" s="29"/>
       <c r="C92" s="28"/>
       <c r="D92" s="29"/>
@@ -18839,7 +18741,7 @@
       <c r="I92" s="28"/>
     </row>
     <row r="93" spans="1:9" s="31" customFormat="1">
-      <c r="A93" s="220"/>
+      <c r="A93" s="213"/>
       <c r="B93" s="29"/>
       <c r="C93" s="28"/>
       <c r="D93" s="29"/>
@@ -18856,7 +18758,7 @@
       <c r="I93" s="28"/>
     </row>
     <row r="94" spans="1:9" s="31" customFormat="1">
-      <c r="A94" s="221"/>
+      <c r="A94" s="214"/>
       <c r="B94" s="29"/>
       <c r="C94" s="28"/>
       <c r="D94" s="29"/>
@@ -18867,7 +18769,7 @@
       <c r="I94" s="28"/>
     </row>
     <row r="95" spans="1:9" s="34" customFormat="1">
-      <c r="A95" s="222" t="s">
+      <c r="A95" s="215" t="s">
         <v>289</v>
       </c>
       <c r="B95" s="32" t="s">
@@ -18892,7 +18794,7 @@
       <c r="I95" s="21"/>
     </row>
     <row r="96" spans="1:9" s="34" customFormat="1">
-      <c r="A96" s="223"/>
+      <c r="A96" s="216"/>
       <c r="B96" s="32"/>
       <c r="C96" s="21"/>
       <c r="D96" s="32"/>
@@ -18909,7 +18811,7 @@
       <c r="I96" s="21"/>
     </row>
     <row r="97" spans="1:9" s="34" customFormat="1" ht="24">
-      <c r="A97" s="223"/>
+      <c r="A97" s="216"/>
       <c r="B97" s="32"/>
       <c r="C97" s="21"/>
       <c r="D97" s="32"/>
@@ -18926,7 +18828,7 @@
       <c r="I97" s="21"/>
     </row>
     <row r="98" spans="1:9" s="34" customFormat="1" ht="24">
-      <c r="A98" s="223"/>
+      <c r="A98" s="216"/>
       <c r="B98" s="32"/>
       <c r="C98" s="21"/>
       <c r="D98" s="32"/>
@@ -18943,7 +18845,7 @@
       <c r="I98" s="21"/>
     </row>
     <row r="99" spans="1:9" s="34" customFormat="1">
-      <c r="A99" s="224"/>
+      <c r="A99" s="217"/>
       <c r="B99" s="32"/>
       <c r="C99" s="21"/>
       <c r="D99" s="32"/>
@@ -18960,7 +18862,7 @@
       <c r="I99" s="21"/>
     </row>
     <row r="100" spans="1:9" s="34" customFormat="1" ht="24">
-      <c r="A100" s="222" t="s">
+      <c r="A100" s="215" t="s">
         <v>290</v>
       </c>
       <c r="B100" s="32" t="s">
@@ -18985,7 +18887,7 @@
       <c r="I100" s="21"/>
     </row>
     <row r="101" spans="1:9" s="34" customFormat="1">
-      <c r="A101" s="223"/>
+      <c r="A101" s="216"/>
       <c r="B101" s="32"/>
       <c r="C101" s="21"/>
       <c r="D101" s="32"/>
@@ -19002,7 +18904,7 @@
       <c r="I101" s="21"/>
     </row>
     <row r="102" spans="1:9" s="34" customFormat="1">
-      <c r="A102" s="223"/>
+      <c r="A102" s="216"/>
       <c r="B102" s="32"/>
       <c r="C102" s="21"/>
       <c r="D102" s="32"/>
@@ -19013,7 +18915,7 @@
       <c r="I102" s="21"/>
     </row>
     <row r="103" spans="1:9" s="34" customFormat="1">
-      <c r="A103" s="224"/>
+      <c r="A103" s="217"/>
       <c r="B103" s="32"/>
       <c r="C103" s="21"/>
       <c r="D103" s="32"/>
@@ -19024,7 +18926,7 @@
       <c r="I103" s="21"/>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="204" t="s">
+      <c r="A104" s="209" t="s">
         <v>291</v>
       </c>
       <c r="B104" s="7" t="s">
@@ -19049,7 +18951,7 @@
       <c r="I104" s="6"/>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="205"/>
+      <c r="A105" s="210"/>
       <c r="B105" s="7"/>
       <c r="C105" s="6"/>
       <c r="D105" s="7"/>
@@ -19066,7 +18968,7 @@
       <c r="I105" s="6"/>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="205"/>
+      <c r="A106" s="210"/>
       <c r="B106" s="7"/>
       <c r="C106" s="6"/>
       <c r="D106" s="7"/>
@@ -19083,7 +18985,7 @@
       <c r="I106" s="6"/>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="206"/>
+      <c r="A107" s="211"/>
       <c r="B107" s="7"/>
       <c r="C107" s="6"/>
       <c r="D107" s="7"/>
@@ -19100,7 +19002,7 @@
       <c r="I107" s="6"/>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="204" t="s">
+      <c r="A108" s="209" t="s">
         <v>292</v>
       </c>
       <c r="B108" s="7" t="s">
@@ -19125,7 +19027,7 @@
       <c r="I108" s="6"/>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="205"/>
+      <c r="A109" s="210"/>
       <c r="B109" s="7"/>
       <c r="C109" s="6"/>
       <c r="D109" s="7"/>
@@ -19142,7 +19044,7 @@
       <c r="I109" s="6"/>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="205"/>
+      <c r="A110" s="210"/>
       <c r="B110" s="7"/>
       <c r="C110" s="6"/>
       <c r="D110" s="7"/>
@@ -19159,7 +19061,7 @@
       <c r="I110" s="6"/>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="206"/>
+      <c r="A111" s="211"/>
       <c r="B111" s="7"/>
       <c r="C111" s="6"/>
       <c r="D111" s="7"/>
@@ -19170,7 +19072,7 @@
       <c r="I111" s="6"/>
     </row>
     <row r="112" spans="1:9" ht="24">
-      <c r="A112" s="204" t="s">
+      <c r="A112" s="209" t="s">
         <v>293</v>
       </c>
       <c r="B112" s="7" t="s">
@@ -19193,7 +19095,7 @@
       <c r="I112" s="6"/>
     </row>
     <row r="113" spans="1:9" ht="48">
-      <c r="A113" s="205"/>
+      <c r="A113" s="210"/>
       <c r="B113" s="7"/>
       <c r="C113" s="6"/>
       <c r="D113" s="7"/>
@@ -19210,7 +19112,7 @@
       <c r="I113" s="6"/>
     </row>
     <row r="114" spans="1:9" ht="24">
-      <c r="A114" s="206"/>
+      <c r="A114" s="211"/>
       <c r="B114" s="7"/>
       <c r="C114" s="6"/>
       <c r="D114" s="7"/>
@@ -25516,6 +25418,21 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A41:A45"/>
+    <mergeCell ref="A46:A50"/>
+    <mergeCell ref="A51:A58"/>
+    <mergeCell ref="A59:A71"/>
     <mergeCell ref="A72:A77"/>
     <mergeCell ref="A78:A82"/>
     <mergeCell ref="A108:A111"/>
@@ -25525,21 +25442,6 @@
     <mergeCell ref="A95:A99"/>
     <mergeCell ref="A100:A103"/>
     <mergeCell ref="A104:A107"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A41:A45"/>
-    <mergeCell ref="A46:A50"/>
-    <mergeCell ref="A51:A58"/>
-    <mergeCell ref="A59:A71"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25552,7 +25454,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B2:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
@@ -25578,19 +25480,19 @@
       <c r="D3" s="41">
         <v>56</v>
       </c>
-      <c r="E3" s="227" t="s">
+      <c r="E3" s="232" t="s">
         <v>1206</v>
       </c>
-      <c r="F3" s="227"/>
-      <c r="G3" s="231"/>
+      <c r="F3" s="232"/>
+      <c r="G3" s="236"/>
       <c r="H3" s="148"/>
       <c r="I3" s="148"/>
       <c r="J3" s="148"/>
-      <c r="K3" s="225" t="s">
+      <c r="K3" s="230" t="s">
         <v>1201</v>
       </c>
-      <c r="L3" s="227"/>
-      <c r="M3" s="227"/>
+      <c r="L3" s="232"/>
+      <c r="M3" s="232"/>
       <c r="N3" s="166" t="s">
         <v>1412</v>
       </c>
@@ -25605,15 +25507,15 @@
       <c r="D4" s="41">
         <v>3</v>
       </c>
-      <c r="E4" s="226"/>
-      <c r="F4" s="226"/>
-      <c r="G4" s="226"/>
+      <c r="E4" s="231"/>
+      <c r="F4" s="231"/>
+      <c r="G4" s="231"/>
       <c r="H4" s="149"/>
       <c r="I4" s="153"/>
       <c r="J4" s="150"/>
-      <c r="K4" s="226"/>
-      <c r="L4" s="226"/>
-      <c r="M4" s="226"/>
+      <c r="K4" s="231"/>
+      <c r="L4" s="231"/>
+      <c r="M4" s="231"/>
       <c r="N4" s="166" t="s">
         <v>1411</v>
       </c>
@@ -25628,15 +25530,15 @@
       <c r="D5" s="41">
         <v>6</v>
       </c>
-      <c r="E5" s="230"/>
-      <c r="F5" s="230"/>
-      <c r="G5" s="233"/>
+      <c r="E5" s="235"/>
+      <c r="F5" s="235"/>
+      <c r="G5" s="238"/>
       <c r="H5" s="148"/>
       <c r="I5" s="148"/>
       <c r="J5" s="148"/>
-      <c r="K5" s="229"/>
-      <c r="L5" s="226"/>
-      <c r="M5" s="230"/>
+      <c r="K5" s="234"/>
+      <c r="L5" s="231"/>
+      <c r="M5" s="235"/>
       <c r="N5" s="166" t="s">
         <v>1421</v>
       </c>
@@ -25689,11 +25591,11 @@
       <c r="H8" s="148"/>
       <c r="I8" s="148"/>
       <c r="J8" s="148"/>
-      <c r="K8" s="225" t="s">
+      <c r="K8" s="230" t="s">
         <v>1202</v>
       </c>
-      <c r="L8" s="226"/>
-      <c r="M8" s="227"/>
+      <c r="L8" s="231"/>
+      <c r="M8" s="232"/>
       <c r="N8" s="166" t="s">
         <v>1412</v>
       </c>
@@ -25707,9 +25609,9 @@
       <c r="H9" s="148"/>
       <c r="I9" s="148"/>
       <c r="J9" s="148"/>
-      <c r="K9" s="228"/>
-      <c r="L9" s="226"/>
-      <c r="M9" s="226"/>
+      <c r="K9" s="233"/>
+      <c r="L9" s="231"/>
+      <c r="M9" s="231"/>
       <c r="N9" s="166" t="s">
         <v>1411</v>
       </c>
@@ -25723,9 +25625,9 @@
       <c r="H10" s="148"/>
       <c r="I10" s="148"/>
       <c r="J10" s="148"/>
-      <c r="K10" s="229"/>
-      <c r="L10" s="226"/>
-      <c r="M10" s="230"/>
+      <c r="K10" s="234"/>
+      <c r="L10" s="231"/>
+      <c r="M10" s="235"/>
       <c r="N10" s="166" t="s">
         <v>1421</v>
       </c>
@@ -25790,11 +25692,11 @@
       <c r="H13" s="148"/>
       <c r="I13" s="148"/>
       <c r="J13" s="148"/>
-      <c r="K13" s="225" t="s">
+      <c r="K13" s="230" t="s">
         <v>1203</v>
       </c>
-      <c r="L13" s="226"/>
-      <c r="M13" s="231"/>
+      <c r="L13" s="231"/>
+      <c r="M13" s="236"/>
       <c r="N13" s="166" t="s">
         <v>1412</v>
       </c>
@@ -25815,9 +25717,9 @@
       <c r="H14" s="148"/>
       <c r="I14" s="148"/>
       <c r="J14" s="148"/>
-      <c r="K14" s="228"/>
-      <c r="L14" s="226"/>
-      <c r="M14" s="232"/>
+      <c r="K14" s="233"/>
+      <c r="L14" s="231"/>
+      <c r="M14" s="237"/>
       <c r="N14" s="166" t="s">
         <v>1411</v>
       </c>
@@ -25839,9 +25741,9 @@
       <c r="H15" s="148"/>
       <c r="I15" s="148"/>
       <c r="J15" s="148"/>
-      <c r="K15" s="229"/>
-      <c r="L15" s="226"/>
-      <c r="M15" s="233"/>
+      <c r="K15" s="234"/>
+      <c r="L15" s="231"/>
+      <c r="M15" s="238"/>
       <c r="N15" s="166" t="s">
         <v>1421</v>
       </c>
@@ -25889,19 +25791,19 @@
       </c>
     </row>
     <row r="18" spans="2:15" ht="15.75" thickTop="1" thickBot="1">
-      <c r="E18" s="225" t="s">
+      <c r="E18" s="230" t="s">
         <v>1204</v>
       </c>
-      <c r="F18" s="227"/>
-      <c r="G18" s="231"/>
+      <c r="F18" s="232"/>
+      <c r="G18" s="236"/>
       <c r="H18" s="148"/>
       <c r="I18" s="148"/>
       <c r="J18" s="148"/>
-      <c r="K18" s="225" t="s">
+      <c r="K18" s="230" t="s">
         <v>1205</v>
       </c>
-      <c r="L18" s="226"/>
-      <c r="M18" s="231"/>
+      <c r="L18" s="231"/>
+      <c r="M18" s="236"/>
       <c r="N18" s="166" t="s">
         <v>1412</v>
       </c>
@@ -25910,15 +25812,15 @@
       </c>
     </row>
     <row r="19" spans="2:15" ht="15" thickBot="1">
-      <c r="E19" s="228"/>
-      <c r="F19" s="226"/>
-      <c r="G19" s="226"/>
+      <c r="E19" s="233"/>
+      <c r="F19" s="231"/>
+      <c r="G19" s="231"/>
       <c r="H19" s="149"/>
       <c r="I19" s="153"/>
       <c r="J19" s="150"/>
-      <c r="K19" s="226"/>
-      <c r="L19" s="226"/>
-      <c r="M19" s="232"/>
+      <c r="K19" s="231"/>
+      <c r="L19" s="231"/>
+      <c r="M19" s="237"/>
       <c r="N19" s="166" t="s">
         <v>1411</v>
       </c>
@@ -25927,15 +25829,15 @@
       </c>
     </row>
     <row r="20" spans="2:15" ht="15" thickBot="1">
-      <c r="E20" s="229"/>
-      <c r="F20" s="230"/>
-      <c r="G20" s="233"/>
+      <c r="E20" s="234"/>
+      <c r="F20" s="235"/>
+      <c r="G20" s="238"/>
       <c r="H20" s="148"/>
       <c r="I20" s="148"/>
       <c r="J20" s="148"/>
-      <c r="K20" s="229"/>
-      <c r="L20" s="230"/>
-      <c r="M20" s="233"/>
+      <c r="K20" s="234"/>
+      <c r="L20" s="235"/>
+      <c r="M20" s="238"/>
       <c r="N20" s="166" t="s">
         <v>1421</v>
       </c>
@@ -27577,55 +27479,55 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B3:B45">
-    <cfRule type="containsText" dxfId="113" priority="23" operator="containsText" text="交互测试">
+    <cfRule type="containsText" dxfId="101" priority="23" operator="containsText" text="交互测试">
       <formula>NOT(ISERROR(SEARCH("交互测试",B3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="112" priority="24" operator="containsText" text="入口测试">
+    <cfRule type="containsText" dxfId="100" priority="24" operator="containsText" text="入口测试">
       <formula>NOT(ISERROR(SEARCH("入口测试",B3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="111" priority="25" operator="containsText" text="功能测试">
+    <cfRule type="containsText" dxfId="99" priority="25" operator="containsText" text="功能测试">
       <formula>NOT(ISERROR(SEARCH("功能测试",B3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B45">
-    <cfRule type="cellIs" dxfId="110" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="21" operator="equal">
       <formula>"安全测试"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="22" operator="containsText" text="UI测试">
+    <cfRule type="containsText" dxfId="97" priority="22" operator="containsText" text="UI测试">
       <formula>NOT(ISERROR(SEARCH("UI测试",B3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:O45 K3:K45">
-    <cfRule type="containsText" dxfId="108" priority="19" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="96" priority="19" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH("fail",K3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="107" priority="20" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="95" priority="20" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH("fail",K3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:O45 K3:K45">
-    <cfRule type="containsText" dxfId="106" priority="18" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="94" priority="18" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH("pass",K3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1048576 K1:K1048576">
-    <cfRule type="containsText" dxfId="105" priority="17" operator="containsText" text="NoT">
+    <cfRule type="containsText" dxfId="93" priority="17" operator="containsText" text="NoT">
       <formula>NOT(ISERROR(SEARCH("NoT",K1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="104" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="10" operator="equal">
       <formula>"二级模块"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="11" operator="equal">
       <formula>"其他异常"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="12" operator="equal">
       <formula>"页面测试"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1048576">
-    <cfRule type="cellIs" dxfId="101" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="9" operator="equal">
       <formula>"NoDev"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27724,7 +27626,7 @@
       <c r="A2" s="41" t="s">
         <v>1591</v>
       </c>
-      <c r="C2" s="234" t="s">
+      <c r="C2" s="204" t="s">
         <v>1305</v>
       </c>
       <c r="D2" s="41"/>
@@ -27734,7 +27636,7 @@
       <c r="H2" s="41"/>
       <c r="I2" s="41"/>
       <c r="J2" s="41"/>
-      <c r="K2" s="235" t="s">
+      <c r="K2" s="205" t="s">
         <v>1592</v>
       </c>
       <c r="L2" s="48" t="s">
@@ -27751,7 +27653,7 @@
         <f>IF(OR(L2="pass",P2="pass"),"pass","failed")</f>
         <v>failed</v>
       </c>
-      <c r="R2" s="236" t="s">
+      <c r="R2" s="206" t="s">
         <v>1594</v>
       </c>
     </row>
@@ -30882,7 +30784,7 @@
       </c>
       <c r="O90" s="48"/>
       <c r="P90" s="107"/>
-      <c r="Q90" s="237" t="str">
+      <c r="Q90" s="207" t="str">
         <f t="shared" si="1"/>
         <v>failed</v>
       </c>
@@ -31392,7 +31294,7 @@
       <c r="N103" s="56"/>
       <c r="O103" s="48"/>
       <c r="P103" s="107"/>
-      <c r="Q103" s="238" t="str">
+      <c r="Q103" s="208" t="str">
         <f t="shared" si="1"/>
         <v>pass</v>
       </c>
@@ -35331,144 +35233,144 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="L1 M2 P1">
-    <cfRule type="containsText" dxfId="57" priority="57" operator="containsText" text="NoT">
+    <cfRule type="containsText" dxfId="88" priority="57" operator="containsText" text="NoT">
       <formula>NOT(ISERROR(SEARCH("NoT",L1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1 M2">
-    <cfRule type="cellIs" dxfId="56" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="53" operator="equal">
       <formula>"NoDev"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C1048576 D2 C1">
-    <cfRule type="containsText" dxfId="55" priority="33" operator="containsText" text="交互测试">
+    <cfRule type="containsText" dxfId="86" priority="33" operator="containsText" text="交互测试">
       <formula>NOT(ISERROR(SEARCH("交互测试",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="35" operator="containsText" text="交互测试">
+    <cfRule type="containsText" dxfId="85" priority="35" operator="containsText" text="交互测试">
       <formula>NOT(ISERROR(SEARCH("交互测试",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="36" operator="containsText" text="返回测试">
+    <cfRule type="containsText" dxfId="84" priority="36" operator="containsText" text="返回测试">
       <formula>NOT(ISERROR(SEARCH("返回测试",C1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="40" operator="equal">
       <formula>"交互测试"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="41" operator="equal">
       <formula>"功能测试"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="42" operator="equal">
       <formula>"页面测试"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="43" operator="equal">
       <formula>"入口链接"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="44" operator="equal">
       <formula>"加载测试"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L1048576 M2 L1">
-    <cfRule type="containsText" dxfId="47" priority="30" operator="containsText" text="Block">
+    <cfRule type="containsText" dxfId="78" priority="30" operator="containsText" text="Block">
       <formula>NOT(ISERROR(SEARCH("Block",L1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="31" operator="containsText" text="Block">
+    <cfRule type="containsText" dxfId="77" priority="31" operator="containsText" text="Block">
       <formula>NOT(ISERROR(SEARCH("Block",L1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="37" operator="containsText" text="阻断">
+    <cfRule type="containsText" dxfId="76" priority="37" operator="containsText" text="阻断">
       <formula>NOT(ISERROR(SEARCH("阻断",L1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="38" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="75" priority="38" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH("pass",L1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="39" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="74" priority="39" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH("fail",L1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C124:C127 C75:C78">
-    <cfRule type="containsText" dxfId="42" priority="34" operator="containsText" text="交互测试1">
+    <cfRule type="containsText" dxfId="73" priority="34" operator="containsText" text="交互测试1">
       <formula>NOT(ISERROR(SEARCH("交互测试1",C75)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C94:C101">
-    <cfRule type="containsText" dxfId="41" priority="22" operator="containsText" text="交互测试">
+    <cfRule type="containsText" dxfId="72" priority="22" operator="containsText" text="交互测试">
       <formula>NOT(ISERROR(SEARCH("交互测试",C94)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="23" operator="containsText" text="交互测试">
+    <cfRule type="containsText" dxfId="71" priority="23" operator="containsText" text="交互测试">
       <formula>NOT(ISERROR(SEARCH("交互测试",C94)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="24" operator="containsText" text="返回测试">
+    <cfRule type="containsText" dxfId="70" priority="24" operator="containsText" text="返回测试">
       <formula>NOT(ISERROR(SEARCH("返回测试",C94)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="25" operator="equal">
       <formula>"交互测试"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="26" operator="equal">
       <formula>"功能测试"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="27" operator="equal">
       <formula>"页面测试"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="28" operator="equal">
       <formula>"入口链接"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="29" operator="equal">
       <formula>"加载测试"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L94:L101">
-    <cfRule type="containsText" dxfId="33" priority="17" operator="containsText" text="Block">
+    <cfRule type="containsText" dxfId="64" priority="17" operator="containsText" text="Block">
       <formula>NOT(ISERROR(SEARCH("Block",L94)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="18" operator="containsText" text="Block">
+    <cfRule type="containsText" dxfId="63" priority="18" operator="containsText" text="Block">
       <formula>NOT(ISERROR(SEARCH("Block",L94)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="19" operator="containsText" text="阻断">
+    <cfRule type="containsText" dxfId="62" priority="19" operator="containsText" text="阻断">
       <formula>NOT(ISERROR(SEARCH("阻断",L94)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="20" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="61" priority="20" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH("pass",L94)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="21" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="60" priority="21" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH("fail",L94)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3:P1048576 P1">
-    <cfRule type="containsText" dxfId="28" priority="10" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="59" priority="10" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH("pass",P1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="11" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="58" priority="11" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH("pass",P1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="containsText" dxfId="26" priority="8" operator="containsText" text="返回测试">
+    <cfRule type="containsText" dxfId="57" priority="8" operator="containsText" text="返回测试">
       <formula>NOT(ISERROR(SEARCH("返回测试",C2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="9" operator="equal">
       <formula>"页面测试"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="cellIs" dxfId="24" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="3" operator="equal">
       <formula>"安全测试"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="4" operator="containsText" text="UI测试">
+    <cfRule type="containsText" dxfId="54" priority="4" operator="containsText" text="UI测试">
       <formula>NOT(ISERROR(SEARCH("UI测试",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="5" operator="containsText" text="交互测试">
+    <cfRule type="containsText" dxfId="53" priority="5" operator="containsText" text="交互测试">
       <formula>NOT(ISERROR(SEARCH("交互测试",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="6" operator="containsText" text="入口测试">
+    <cfRule type="containsText" dxfId="52" priority="6" operator="containsText" text="入口测试">
       <formula>NOT(ISERROR(SEARCH("入口测试",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="7" operator="containsText" text="功能测试">
+    <cfRule type="containsText" dxfId="51" priority="7" operator="containsText" text="功能测试">
       <formula>NOT(ISERROR(SEARCH("功能测试",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2">
-    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="1" operator="equal">
       <formula>"fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="2" operator="equal">
       <formula>"pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36541,73 +36443,73 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="K32 N23:N29 K25:K29 K1 O1">
-    <cfRule type="containsText" dxfId="100" priority="58" operator="containsText" text="NoT">
+    <cfRule type="containsText" dxfId="48" priority="58" operator="containsText" text="NoT">
       <formula>NOT(ISERROR(SEARCH("NoT",K1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32 K25:K29 K1">
-    <cfRule type="cellIs" dxfId="99" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="57" operator="equal">
       <formula>"NoDev"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33:C1048576 C1:C22 B23:B32">
-    <cfRule type="containsText" dxfId="98" priority="49" operator="containsText" text="交互测试">
+    <cfRule type="containsText" dxfId="46" priority="49" operator="containsText" text="交互测试">
       <formula>NOT(ISERROR(SEARCH("交互测试",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="50" operator="containsText" text="交互测试">
+    <cfRule type="containsText" dxfId="45" priority="50" operator="containsText" text="交互测试">
       <formula>NOT(ISERROR(SEARCH("交互测试",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="51" operator="containsText" text="返回测试">
+    <cfRule type="containsText" dxfId="44" priority="51" operator="containsText" text="返回测试">
       <formula>NOT(ISERROR(SEARCH("返回测试",B1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="52" operator="equal">
       <formula>"交互测试"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="53" operator="equal">
       <formula>"功能测试"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="54" operator="equal">
       <formula>"页面测试"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="55" operator="equal">
       <formula>"入口链接"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="56" operator="equal">
       <formula>"加载测试"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33:K1048576 L25:L32 K1:K24">
-    <cfRule type="containsText" dxfId="90" priority="44" operator="containsText" text="Block">
+    <cfRule type="containsText" dxfId="38" priority="44" operator="containsText" text="Block">
       <formula>NOT(ISERROR(SEARCH("Block",K1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="89" priority="45" operator="containsText" text="Block">
+    <cfRule type="containsText" dxfId="37" priority="45" operator="containsText" text="Block">
       <formula>NOT(ISERROR(SEARCH("Block",K1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="46" operator="containsText" text="阻断">
+    <cfRule type="containsText" dxfId="36" priority="46" operator="containsText" text="阻断">
       <formula>NOT(ISERROR(SEARCH("阻断",K1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="87" priority="47" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="35" priority="47" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH("pass",K1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="48" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="34" priority="48" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH("fail",K1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32 N23:N29 K25:K29">
-    <cfRule type="containsText" dxfId="85" priority="21" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="33" priority="21" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH("fail",K23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="22" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="32" priority="22" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH("fail",K23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32 N23:N29 K25:K29">
-    <cfRule type="containsText" dxfId="83" priority="20" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="31" priority="20" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH("pass",K23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K29 K25:K26">
-    <cfRule type="cellIs" dxfId="82" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="14" operator="equal">
       <formula>"NoDev"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37301,7 +37203,7 @@
         <v>1312</v>
       </c>
       <c r="O18" s="48"/>
-      <c r="P18" s="236" t="s">
+      <c r="P18" s="206" t="s">
         <v>1594</v>
       </c>
     </row>
@@ -38992,61 +38894,61 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="O103:O1048576 K103:K1048576 K1:L1 O1:P1">
-    <cfRule type="containsText" dxfId="17" priority="41" operator="containsText" text="NoT">
+    <cfRule type="containsText" dxfId="29" priority="41" operator="containsText" text="NoT">
       <formula>NOT(ISERROR(SEARCH("NoT",K1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B103:B1048576 B1">
-    <cfRule type="cellIs" dxfId="16" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="38" operator="equal">
       <formula>"二级模块"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="39" operator="equal">
       <formula>"其他异常"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="40" operator="equal">
       <formula>"页面测试"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K103:K1048576 K1:L1">
-    <cfRule type="cellIs" dxfId="13" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="37" operator="equal">
       <formula>"NoDev"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="containsText" dxfId="12" priority="9" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="24" priority="9" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH("fail",K5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="23" priority="10" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH("fail",K5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="22" priority="8" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH("pass",K5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="containsText" dxfId="9" priority="4" operator="containsText" text="入口">
+    <cfRule type="containsText" dxfId="21" priority="4" operator="containsText" text="入口">
       <formula>NOT(ISERROR(SEARCH("入口",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="链接">
+    <cfRule type="containsText" dxfId="20" priority="5" operator="containsText" text="链接">
       <formula>NOT(ISERROR(SEARCH("链接",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="页面">
+    <cfRule type="containsText" dxfId="19" priority="6" operator="containsText" text="页面">
       <formula>NOT(ISERROR(SEARCH("页面",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="功能">
+    <cfRule type="containsText" dxfId="18" priority="7" operator="containsText" text="功能">
       <formula>NOT(ISERROR(SEARCH("功能",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="链接">
+    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="链接">
       <formula>NOT(ISERROR(SEARCH("链接",B18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="页面">
+    <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="页面">
       <formula>NOT(ISERROR(SEARCH("页面",B18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="功能">
+    <cfRule type="containsText" dxfId="15" priority="3" operator="containsText" text="功能">
       <formula>NOT(ISERROR(SEARCH("功能",B18)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39060,7 +38962,7 @@
   <dimension ref="A1:O85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
@@ -41520,65 +41422,65 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="O1 L1">
-    <cfRule type="containsText" dxfId="81" priority="29" operator="containsText" text="NoT">
+    <cfRule type="containsText" dxfId="14" priority="29" operator="containsText" text="NoT">
       <formula>NOT(ISERROR(SEARCH("NoT",L1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:C1">
-    <cfRule type="cellIs" dxfId="80" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="28" operator="equal">
       <formula>"页面测试"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45:B75 B2:C29">
-    <cfRule type="containsText" dxfId="79" priority="25" operator="containsText" text="交互测试">
+    <cfRule type="containsText" dxfId="12" priority="25" operator="containsText" text="交互测试">
       <formula>NOT(ISERROR(SEARCH("交互测试",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="26" operator="containsText" text="入口测试">
+    <cfRule type="containsText" dxfId="11" priority="26" operator="containsText" text="入口测试">
       <formula>NOT(ISERROR(SEARCH("入口测试",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="27" operator="containsText" text="功能测试">
+    <cfRule type="containsText" dxfId="10" priority="27" operator="containsText" text="功能测试">
       <formula>NOT(ISERROR(SEARCH("功能测试",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45:B75 B2:C29">
-    <cfRule type="cellIs" dxfId="76" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="23" operator="equal">
       <formula>"安全测试"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="24" operator="containsText" text="UI测试">
+    <cfRule type="containsText" dxfId="8" priority="24" operator="containsText" text="UI测试">
       <formula>NOT(ISERROR(SEARCH("UI测试",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C77:C1048576 B45:B1048576 B1:C29">
-    <cfRule type="containsText" dxfId="74" priority="19" operator="containsText" text="返回测试">
+    <cfRule type="containsText" dxfId="7" priority="19" operator="containsText" text="返回测试">
       <formula>NOT(ISERROR(SEARCH("返回测试",B1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="22" operator="equal">
       <formula>"页面测试"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1048576">
-    <cfRule type="cellIs" dxfId="72" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="20" operator="equal">
       <formula>"fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="21" operator="equal">
       <formula>"pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L6">
-    <cfRule type="containsText" dxfId="70" priority="17" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="3" priority="17" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH("fail",L2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="18" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="2" priority="18" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH("fail",L2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L6">
-    <cfRule type="containsText" dxfId="68" priority="16" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="1" priority="16" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH("fail",L2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L6">
-    <cfRule type="containsText" dxfId="67" priority="15" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="0" priority="15" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH("pass",L2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -41586,4 +41488,32 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="G19:I19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="19" spans="7:9">
+      <c r="G19" t="s">
+        <v>1599</v>
+      </c>
+      <c r="H19" t="s">
+        <v>1600</v>
+      </c>
+      <c r="I19" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
 </file>